--- a/Microcontroladores/Timer0 ATmega16A.xlsx
+++ b/Microcontroladores/Timer0 ATmega16A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Info\Docencia\00-MICROCONTROLADORES (Materiales)\MATERIALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalor\Documents\Git\School\Microcontroladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08A0BF7-9D1B-45F6-A275-7CD2DF960597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79D92F5-8E02-482A-8629-911547D64E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timer0-comp" sheetId="1" r:id="rId1"/>
@@ -214,6 +214,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -222,15 +231,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,13 +601,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="1">
-        <v>4.6999999999999999E-4</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -636,15 +636,15 @@
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f>1/8000000</f>
         <v>1.2499999999999999E-7</v>
       </c>
@@ -653,107 +653,107 @@
       </c>
       <c r="E5" s="4">
         <f>($E$2/($C$5*D5))-1</f>
-        <v>3759</v>
+        <v>8959</v>
       </c>
       <c r="F5" s="10">
         <f>ROUND(E5,0)</f>
-        <v>3759</v>
+        <v>8959</v>
       </c>
       <c r="G5" s="4">
         <f>D5*$C$5*(ROUND(E5,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="10">
         <v>8</v>
       </c>
       <c r="E6" s="4">
         <f>($E$2/($C$5*D6))-1</f>
-        <v>469</v>
+        <v>1119</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" ref="F6:F9" si="0">ROUND(E6,0)</f>
-        <v>469</v>
+        <v>1119</v>
       </c>
       <c r="G6" s="4">
         <f>D6*$C$5*(ROUND(E6,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="10">
         <v>64</v>
       </c>
       <c r="E7" s="4">
         <f>($E$2/($C$5*D7))-1</f>
-        <v>57.75</v>
+        <v>139</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="G7" s="4">
         <f>D7*$C$5*(ROUND(E7,0)+1)</f>
-        <v>4.7199999999999998E-4</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="10">
         <v>256</v>
       </c>
       <c r="E8" s="4">
         <f>($E$2/($C$5*D8))-1</f>
-        <v>13.6875</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4">
         <f>D8*$C$5*(ROUND(E8,0)+1)</f>
-        <v>4.7999999999999996E-4</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="10">
         <v>1024</v>
       </c>
       <c r="E9" s="4">
         <f>($E$2/($C$5*D9))-1</f>
-        <v>2.671875</v>
+        <v>7.75</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4">
         <f>D9*$C$5*(ROUND(E9,0)+1)</f>
-        <v>5.1199999999999998E-4</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+        <v>1.152E-3</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -762,15 +762,15 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f>1/4000000</f>
         <v>2.4999999999999999E-7</v>
       </c>
@@ -779,107 +779,107 @@
       </c>
       <c r="E11" s="4">
         <f>($E$2/($C$11*D11))-1</f>
-        <v>1879</v>
+        <v>4479</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" ref="F11:F15" si="1">ROUND(E11,0)</f>
-        <v>1879</v>
+        <v>4479</v>
       </c>
       <c r="G11" s="4">
         <f>D11*$C$11*(ROUND(E11,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="10">
         <v>8</v>
       </c>
       <c r="E12" s="4">
         <f>($E$2/($C$11*D12))-1</f>
-        <v>234</v>
+        <v>559</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="1"/>
-        <v>234</v>
+        <v>559</v>
       </c>
       <c r="G12" s="4">
         <f>D12*$C$11*(ROUND(E12,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="10">
         <v>64</v>
       </c>
       <c r="E13" s="4">
         <f>($E$2/($C$11*D13))-1</f>
-        <v>28.375</v>
+        <v>69</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G13" s="4">
         <f>D13*$C$11*(ROUND(E13,0)+1)</f>
-        <v>4.64E-4</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="10">
         <v>256</v>
       </c>
       <c r="E14" s="4">
         <f>($E$2/($C$11*D14))-1</f>
-        <v>6.34375</v>
+        <v>16.5</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G14" s="4">
         <f>D14*$C$11*(ROUND(E14,0)+1)</f>
-        <v>4.4799999999999999E-4</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+        <v>1.152E-3</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="10">
         <v>1024</v>
       </c>
       <c r="E15" s="4">
         <f>($E$2/($C$11*D15))-1</f>
-        <v>0.8359375</v>
+        <v>3.375</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4">
         <f>D15*$C$11*(ROUND(E15,0)+1)</f>
-        <v>5.1199999999999998E-4</v>
-      </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+        <v>1.024E-3</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
@@ -888,15 +888,15 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f>1/2000000</f>
         <v>4.9999999999999998E-7</v>
       </c>
@@ -905,103 +905,103 @@
       </c>
       <c r="E17" s="4">
         <f>($E$2/($C$17*D17))-1</f>
-        <v>939</v>
+        <v>2239</v>
       </c>
       <c r="F17" s="10">
         <f t="shared" ref="F17:F21" si="2">ROUND(E17,0)</f>
-        <v>939</v>
+        <v>2239</v>
       </c>
       <c r="G17" s="4">
         <f>D17*$C$17*(ROUND(E17,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="10">
         <v>8</v>
       </c>
       <c r="E18" s="4">
         <f>($E$2/($C$17*D18))-1</f>
-        <v>116.5</v>
+        <v>279</v>
       </c>
       <c r="F18" s="10">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="G18" s="4">
         <f>D18*$C$17*(ROUND(E18,0)+1)</f>
-        <v>4.7199999999999998E-4</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="10">
         <v>64</v>
       </c>
       <c r="E19" s="4">
         <f>($E$2/($C$17*D19))-1</f>
-        <v>13.6875</v>
+        <v>34</v>
       </c>
       <c r="F19" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G19" s="4">
         <f>D19*$C$17*(ROUND(E19,0)+1)</f>
-        <v>4.7999999999999996E-4</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="10">
         <v>256</v>
       </c>
       <c r="E20" s="4">
         <f>($E$2/($C$17*D20))-1</f>
-        <v>2.671875</v>
+        <v>7.75</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
         <f>D20*$C$17*(ROUND(E20,0)+1)</f>
-        <v>5.1199999999999998E-4</v>
+        <v>1.152E-3</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="10">
         <v>1024</v>
       </c>
       <c r="E21" s="4">
         <f>($E$2/($C$17*D21))-1</f>
-        <v>-8.203125E-2</v>
+        <v>1.1875</v>
       </c>
       <c r="F21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4">
         <f>D21*$C$17*(ROUND(E21,0)+1)</f>
-        <v>5.1199999999999998E-4</v>
+        <v>1.024E-3</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
       <c r="G22" s="8"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1025,91 +1025,91 @@
       </c>
       <c r="E23" s="4">
         <f>($E$2/($C$23*D23))-1</f>
-        <v>469</v>
+        <v>1119</v>
       </c>
       <c r="F23" s="10">
         <f t="shared" ref="F23:F27" si="3">ROUND(E23,0)</f>
-        <v>469</v>
+        <v>1119</v>
       </c>
       <c r="G23" s="4">
         <f>D23*$C$23*(ROUND(E23,0)+1)</f>
-        <v>4.6999999999999999E-4</v>
+        <v>1.1199999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="10">
         <v>8</v>
       </c>
       <c r="E24" s="4">
         <f>($E$2/($C$23*D24))-1</f>
-        <v>57.75</v>
+        <v>139</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="G24" s="4">
         <f>D24*$C$23*(ROUND(E24,0)+1)</f>
-        <v>4.7199999999999998E-4</v>
+        <v>1.1199999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="10">
         <v>64</v>
       </c>
       <c r="E25" s="4">
         <f>($E$2/($C$23*D25))-1</f>
-        <v>6.34375</v>
+        <v>16.5</v>
       </c>
       <c r="F25" s="10">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G25" s="4">
         <f>D25*$C$23*(ROUND(E25,0)+1)</f>
-        <v>4.4799999999999999E-4</v>
+        <v>1.152E-3</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <v>256</v>
       </c>
       <c r="E26" s="4">
         <f>($E$2/($C$23*D26))-1</f>
-        <v>0.8359375</v>
+        <v>3.375</v>
       </c>
       <c r="F26" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4">
         <f>D26*$C$23*(ROUND(E26,0)+1)</f>
-        <v>5.1199999999999998E-4</v>
+        <v>1.024E-3</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="10">
         <v>1024</v>
       </c>
       <c r="E27" s="4">
         <f>($E$2/($C$23*D27))-1</f>
-        <v>-0.541015625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="F27" s="10">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
         <f>D27*$C$23*(ROUND(E27,0)+1)</f>
-        <v>0</v>
+        <v>1.024E-3</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -1120,11 +1120,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L15"/>
     <mergeCell ref="J16:L19"/>
@@ -1132,6 +1127,11 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1178,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f>1/8000000</f>
         <v>1.2499999999999999E-7</v>
       </c>
@@ -1199,14 +1199,14 @@
         <v>3.1999999999999999E-5</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5">
         <v>8</v>
       </c>
@@ -1215,14 +1215,14 @@
         <v>2.5599999999999999E-4</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5">
         <v>64</v>
       </c>
@@ -1231,14 +1231,14 @@
         <v>2.0479999999999999E-3</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5">
         <v>256</v>
       </c>
@@ -1247,14 +1247,14 @@
         <v>8.1919999999999996E-3</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="5">
         <v>1024</v>
       </c>
@@ -1263,9 +1263,9 @@
         <v>3.2767999999999999E-2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1274,16 +1274,16 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f>1/4000000</f>
         <v>2.4999999999999999E-7</v>
       </c>
@@ -1295,14 +1295,14 @@
         <v>6.3999999999999997E-5</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="5">
         <v>8</v>
       </c>
@@ -1311,14 +1311,14 @@
         <v>5.1199999999999998E-4</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="5">
         <v>64</v>
       </c>
@@ -1327,14 +1327,14 @@
         <v>4.0959999999999998E-3</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="5">
         <v>256</v>
       </c>
@@ -1343,14 +1343,14 @@
         <v>1.6383999999999999E-2</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="5">
         <v>1024</v>
       </c>
@@ -1359,9 +1359,9 @@
         <v>6.5535999999999997E-2</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -1370,16 +1370,16 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f>1/2000000</f>
         <v>4.9999999999999998E-7</v>
       </c>
@@ -1391,14 +1391,14 @@
         <v>1.2799999999999999E-4</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="5">
         <v>8</v>
       </c>
@@ -1407,14 +1407,14 @@
         <v>1.024E-3</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="5">
         <v>64</v>
       </c>
@@ -1423,14 +1423,14 @@
         <v>8.1919999999999996E-3</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5">
         <v>256</v>
       </c>
@@ -1440,8 +1440,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5">
         <v>1024</v>
       </c>
@@ -1457,10 +1457,10 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <f>1/1000000</f>
         <v>9.9999999999999995E-7</v>
       </c>
@@ -1473,8 +1473,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="5">
         <v>8</v>
       </c>
@@ -1484,8 +1484,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="5">
         <v>64</v>
       </c>
@@ -1495,8 +1495,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="5">
         <v>256</v>
       </c>
@@ -1506,8 +1506,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5">
         <v>1024</v>
       </c>
@@ -1518,17 +1518,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H15:J18"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="H4:J14"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
+    <mergeCell ref="H15:J18"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
